--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>009547</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>华安鼎利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.58</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.87</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009547</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安鼎利混合</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64.65</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>160425</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>华安创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>78.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160425</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安创业板两年定期开放混合</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.15</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.46</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.95</v>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1574,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.18</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.46</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.34</v>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1699,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.98</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.18</v>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.46</v>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2125,14 +2212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.95</v>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2141,14 +2250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.34</v>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2157,13 +2288,1435 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>5.49</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>2.98</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.18</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.34</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -600,6 +617,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2678,176 +3929,6 @@
       </c>
       <c r="H14" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010792</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7482</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2580</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010793</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1719</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2882,7 +3963,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2922,26 +4003,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9357</t>
+          <t>0.7482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2960,26 +4041,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3209</t>
+          <t>0.2580</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2998,26 +4079,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2083</t>
+          <t>0.1719</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3026,6 +4107,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3479,7 +4730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300457-赢合科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>7.49</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>5.49</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>2.98</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.18</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.34</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3386,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3929,176 +4514,6 @@
       </c>
       <c r="H14" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010792</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7482</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2580</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010793</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1719</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4548,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4173,26 +4588,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9357</t>
+          <t>0.7482</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4211,26 +4626,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3209</t>
+          <t>0.2580</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4249,26 +4664,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2083</t>
+          <t>0.1719</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4277,6 +4692,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4560,7 +5145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4728,250 +5313,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3702</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1642</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>